--- a/biology/Zoologie/Celmia_celmus/Celmia_celmus.xlsx
+++ b/biology/Zoologie/Celmia_celmus/Celmia_celmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia celmus est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Celmia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia celmus a été décrit par Pieter Cramer en 1775 sous le nom initial de Papilio celmus.
-Synonymes: Thecla celmus, Hewitson, 1873; Tmolus pereza Butler, 1877; Celmia stigmata Johnson, 1991[1].
-Nom vernaculaire
-Celmia celmus se nomme Celmus Hairstreak en anglais[2].
+Synonymes: Thecla celmus, Hewitson, 1873; Tmolus pereza Butler, 1877; Celmia stigmata Johnson, 1991.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia celmus se nomme Celmus Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Celmia_celmus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_celmus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia celmus est un petit papillon aux pattes et aux antennes cerclés de blanc et noir, avec deux fines queues à chaque aile postérieure, une très longue et une longue.
 Le dessus des ailes est marron avec une suffusion bleu métallisé en large plage localisée au bord interne aux ailes antérieures, ne laissant qu'une bordure marron aux ailes  postérieures.
@@ -554,32 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Celmia_celmus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Celmia_celmus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -601,17 +626,81 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celmia_celmus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_celmus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celmia celmus est présent au Mexique, au Costa Rica, en Colombie, en Équateur, au Brésil, au Surinam et en Guyane[1],[2],[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia celmus est présent au Mexique, au Costa Rica, en Colombie, en Équateur, au Brésil, au Surinam et en Guyane.
 Sur les autres projets Wikimedia :
 Celmia celmus, sur Wikimedia CommonsCelmia celmus, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Celmia_celmus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_celmus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
